--- a/data/Indicator_list.xlsx
+++ b/data/Indicator_list.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hauer\Downloads\Corona_Data\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6EF9A9-A454-4DF3-9373-1AC585B43330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{19B60F32-1EA3-4BE9-8AA4-58A33838D1EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Population using at least basic sanitation services (%)</t>
   </si>
@@ -93,12 +87,30 @@
   </si>
   <si>
     <t>NCD_BMI_30A</t>
+  </si>
+  <si>
+    <t>long_form</t>
+  </si>
+  <si>
+    <t>short_form</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>IHRSPARCAPLEVEL09_C_9_1</t>
+  </si>
+  <si>
+    <t>IHRSPAR_CAPACITY09</t>
+  </si>
+  <si>
+    <t>Health Service Provision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,104 +448,126 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE18A63-170C-4A06-A695-A3EAC26B5499}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
